--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0D556C-8641-41B4-82CD-FFA3C948BDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16573909-5A15-4ECE-A669-F3E5AD42EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>3M PBPO 24 NG</t>
   </si>
   <si>
-    <t>BlackBox 36FO</t>
-  </si>
-  <si>
     <t>CO022</t>
   </si>
   <si>
@@ -103,12 +100,15 @@
   </si>
   <si>
     <t>µODC</t>
+  </si>
+  <si>
+    <t>BlackBox - 10231128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C1" sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>12</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>12</v>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16573909-5A15-4ECE-A669-F3E5AD42EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A2232-FE9E-43DE-B2EF-642B36A8D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>BlackBox - 10231128</t>
+  </si>
+  <si>
+    <t>BlackBox - 10269277</t>
+  </si>
+  <si>
+    <t>┬ÁODC</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +723,28 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A2232-FE9E-43DE-B2EF-642B36A8D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FA46E-46BF-4707-AE5D-3D9D497018FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>┬ÁODC</t>
+  </si>
+  <si>
+    <t>3M PBO 1.5 (FDP Branch)</t>
+  </si>
+  <si>
+    <t>3M PBO T1 (FDP Branch)</t>
+  </si>
+  <si>
+    <t>3M PBO T0 (Branch)</t>
+  </si>
+  <si>
+    <t>3M BPEO T2 (CDP)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -175,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +758,50 @@
         <v>72</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FA46E-46BF-4707-AE5D-3D9D497018FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4698ED-2504-4E6F-A025-C8F674DE7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>3M BPEO T2 (CDP)</t>
+  </si>
+  <si>
+    <t>uODC</t>
+  </si>
+  <si>
+    <t>BlackBox</t>
+  </si>
+  <si>
+    <t>BlackBox - 10269269</t>
+  </si>
+  <si>
+    <t>VertHor - 10176650</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -188,6 +200,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +815,50 @@
         <v>24</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4698ED-2504-4E6F-A025-C8F674DE7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907B5EF-B059-493F-8529-9ABA00FAF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>VertHor - 10176650</t>
+  </si>
+  <si>
+    <t>WallDrop</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +862,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907B5EF-B059-493F-8529-9ABA00FAF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899DCC7-6C24-4235-9380-353135174E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>uODC</t>
-  </si>
-  <si>
-    <t>BlackBox</t>
   </si>
   <si>
     <t>BlackBox - 10269269</t>
@@ -202,8 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C23" sqref="A23:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +765,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,13 +827,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>12</v>
       </c>
     </row>
@@ -845,31 +842,20 @@
         <v>30</v>
       </c>
       <c r="B29" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="C30" s="6">
         <v>12</v>
       </c>
     </row>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899DCC7-6C24-4235-9380-353135174E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5705AD-C357-49B6-92FC-BA469A12978D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="A23:C30"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,10 +765,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5705AD-C357-49B6-92FC-BA469A12978D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188FABA-02CA-42B9-8AC5-09C33D9FDA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>WallDrop</t>
+  </si>
+  <si>
+    <t>3M BPEO T1 (CDP)</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +862,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188FABA-02CA-42B9-8AC5-09C33D9FDA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A2F1D-808C-41AF-B9FB-517309A66167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -136,13 +136,19 @@
   </si>
   <si>
     <t>3M BPEO T1 (CDP)</t>
+  </si>
+  <si>
+    <t>ELINE - 09178</t>
+  </si>
+  <si>
+    <t>IDB-32-3SM-1-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +160,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +885,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pdsInput/cassete file.xlsx
+++ b/pdsInput/cassete file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\pdsInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A2F1D-808C-41AF-B9FB-517309A66167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD205485-D5D3-427D-AA84-68206270FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>NBR_CASS</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>IDB-32-3SM-1-A</t>
+  </si>
+  <si>
+    <t>3M BPEO T2 (BDP)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,6 +908,17 @@
       </c>
       <c r="C33" s="6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6">
+        <v>14</v>
+      </c>
+      <c r="C34" s="6">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
